--- a/Ear Surgery Instruments/Budget and Materials 25-Jan-2016.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 25-Jan-2016.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/Graduate School/Ear Surgery Instruments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1580" windowWidth="28360" windowHeight="14080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="435" yWindow="1575" windowWidth="28365" windowHeight="14085" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -266,13 +261,25 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=0B1QbcJa_MetzZ21FMjZ6OTJYM2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget for REB: </t>
+  </si>
+  <si>
+    <t>Master's Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stipend </t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -420,6 +424,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,37 +705,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="56" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="56.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,12 +767,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -798,7 +805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -830,7 +837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="47.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -852,7 +859,7 @@
         <v>658</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2">
@@ -860,7 +867,7 @@
         <v>452.90140000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="63">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -882,13 +889,13 @@
         <v>658</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="15"/>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>452.90140000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -910,13 +917,13 @@
         <v>472</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="15"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>324.87760000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="31.5">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -940,7 +947,7 @@
         <v>61.947000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -964,7 +971,7 @@
         <v>75.713000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="47.25">
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
@@ -986,7 +993,7 @@
         <v>188.93835000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="47.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>188.93835000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="31.5">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>172.83213000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="31.5">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>35.30979</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="7" customFormat="1" ht="31.5">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1072,12 +1079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="18.75">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="47.25">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>1238.94</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>68.83</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>4818.1000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1193,12 +1200,12 @@
         <v>7944.4529999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="18.75">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>16150.959500000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>390.95440000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>16150.959500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
@@ -1303,10 +1310,54 @@
         <v>47862.1506343</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="E30" s="2">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.5">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2">
+        <v>23465</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="2">
+        <f>D34*F34</f>
+        <v>11732.5</v>
       </c>
     </row>
   </sheetData>
@@ -1321,35 +1372,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="18.75">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1">
+      <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -1365,7 +1416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>58</v>
       </c>
@@ -1376,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -1392,56 +1443,56 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" s="11" customFormat="1">
+      <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1">
+      <c r="B11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="63">
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63">
       <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E14" t="s">

--- a/Ear Surgery Instruments/Budget and Materials 25-Jan-2016.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 25-Jan-2016.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Ear Surgery Instruments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1575" windowWidth="28365" windowHeight="14085" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Description</t>
   </si>
@@ -41,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://shop.nitinol.com/shop/?slug=index.php&amp;cPath=27 </t>
-  </si>
-  <si>
-    <t>ft (min 4 ft)</t>
   </si>
   <si>
     <t>Nitinol Tubing - NDC</t>
@@ -119,12 +121,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Solidworks Course</t>
-  </si>
-  <si>
-    <t>one-time</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -150,21 +146,6 @@
   </si>
   <si>
     <t>CABLE CP391 1.8M MONOPOLAR</t>
-  </si>
-  <si>
-    <t>as of 17-Jan-2016 the exchange rate is 0.6883 CAD = 1 USD</t>
-  </si>
-  <si>
-    <t>Price (CAD) Year 1</t>
-  </si>
-  <si>
-    <t>Price (USD) Year 1</t>
-  </si>
-  <si>
-    <t>Price (CAD) Year 2</t>
-  </si>
-  <si>
-    <t>Price (USD) Year 2</t>
   </si>
   <si>
     <t>Sub-Total + tax</t>
@@ -273,13 +254,25 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Cost (CAD)</t>
+  </si>
+  <si>
+    <t>as of 21-Feb-2017 the exchange rate is 0.6883 CAD = 1 USD</t>
+  </si>
+  <si>
+    <t>Cost (USD)</t>
+  </si>
+  <si>
+    <t>ft (min. 4 ft)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +307,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,9 +388,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -429,7 +431,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -705,37 +708,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="56.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,39 +752,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="18.75">
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4">
         <f>75.5</f>
         <v>75.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -790,30 +787,29 @@
         <f>D3*F3</f>
         <v>226.5</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J13" si="0">G3*$K$3</f>
+        <v>172.14000000000001</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K13" si="0">G3*$M$3</f>
-        <v>155.89995000000002</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.76</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>152.6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -822,34 +818,33 @@
         <f>D4*F4</f>
         <v>457.79999999999995</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>347.928</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>315.10373999999996</v>
-      </c>
-      <c r="M4" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="47.25">
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="4">
         <f>658</f>
         <v>658</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -858,28 +853,27 @@
         <f>D5*F5</f>
         <v>658</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>452.90140000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="63">
+        <v>500.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="4">
         <f>658</f>
         <v>658</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -888,26 +882,25 @@
         <f>D6*F6</f>
         <v>658</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="2">
+      <c r="H6" s="15"/>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>452.90140000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>500.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="4">
         <f>472</f>
         <v>472</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -916,22 +909,21 @@
         <f>D7*F7</f>
         <v>472</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="15"/>
-      <c r="K7" s="2">
+      <c r="H7" s="15"/>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>324.87760000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="31.5">
+        <v>358.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -939,23 +931,23 @@
       <c r="G8" s="2">
         <v>90</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>61.947000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -963,20 +955,23 @@
       <c r="G9" s="2">
         <v>110</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>75.713000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="47.25">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>274.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -985,20 +980,23 @@
         <f>D10*F10</f>
         <v>274.5</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>188.93835000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="47.25">
+        <v>208.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
         <v>274.5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1007,20 +1005,23 @@
         <f>D11*F11</f>
         <v>274.5</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>208.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>188.93835000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="31.5">
-      <c r="B12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="2">
         <v>251.1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1029,20 +1030,23 @@
         <f>D12*F12</f>
         <v>251.1</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>172.83213000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="31.5">
+        <v>190.83599999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
         <v>51.3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1051,42 +1055,35 @@
         <f>D13*F13</f>
         <v>51.3</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>35.30979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" ht="31.5">
+        <v>38.988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7">
-        <f>SUM(G3:G13)*$M$4</f>
+        <f>SUM(G3:G13)*$K$4</f>
         <v>3981.7809999999999</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <f>SUM(K3:K13)*1.13</f>
-        <v>2740.6598622999995</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(L3:L14)*1.13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="18.75">
+      <c r="J15" s="7">
+        <f>SUM(J3:J13)*1.13</f>
+        <v>3026.1535599999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="47.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1095,37 +1092,35 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
+        <f>D17*F17</f>
+        <v>320</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="2">
-        <f>G17*$M$3</f>
-        <v>1238.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2">
+        <f>G17*$K$3</f>
+        <v>243.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>20</v>
@@ -1134,89 +1129,65 @@
         <f>D18*F18</f>
         <v>800</v>
       </c>
-      <c r="H18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2">
-        <f>G18*$M$3</f>
-        <v>550.64</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2">
+        <f>G18*$K$3</f>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2">
         <v>100</v>
       </c>
-      <c r="K19" s="2">
-        <f>G19*$M$3</f>
-        <v>68.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="J19" s="2">
+        <f>G19*$K$3</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" s="2">
         <v>3000</v>
       </c>
-      <c r="H20" s="2">
-        <v>7000</v>
-      </c>
-      <c r="K20" s="2">
-        <f>G20*$M$3</f>
-        <v>2064.9</v>
-      </c>
-      <c r="L20" s="2">
-        <f>H20*$M$3</f>
-        <v>4818.1000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="31.5">
+      <c r="J20" s="2">
+        <f>G20*$K$3</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" s="7">
-        <f>SUM(G17:G20)*$M$4</f>
-        <v>6440.9999999999991</v>
-      </c>
-      <c r="H21" s="7">
-        <f>SUM(H17:H20)*1.13</f>
-        <v>11299.999999999998</v>
-      </c>
-      <c r="K21" s="7">
-        <f>SUM(K17:K20)*1.13</f>
-        <v>4433.3402999999998</v>
-      </c>
-      <c r="L21" s="7">
-        <f>L18+L20*1.13</f>
-        <v>7944.4529999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" ht="18.75">
+        <f>SUM(G17:G20)*$K$4</f>
+        <v>4768.5999999999995</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUM(J17:J20)*1.13</f>
+        <v>3624.1359999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D23" s="2">
         <v>23465</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1225,278 +1196,229 @@
         <f>D23*F23</f>
         <v>23465</v>
       </c>
-      <c r="H23" s="2">
-        <f>D23*F23</f>
+      <c r="H23" s="3"/>
+      <c r="J23" s="2">
+        <f>G23*$K$3</f>
+        <v>17833.400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G23</f>
         <v>23465</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="K23" s="2">
-        <f>G23*$M$3</f>
-        <v>16150.959500000001</v>
-      </c>
-      <c r="L23" s="2">
-        <f>H23*$M$3</f>
-        <v>16150.959500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>568</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>568</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="K24" s="2">
-        <f>G24*$M$3</f>
-        <v>390.95440000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1">
-      <c r="A25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7">
-        <f>G23+G24*$M$4</f>
-        <v>24106.84</v>
-      </c>
-      <c r="H25" s="7">
-        <f>H23</f>
-        <v>23465</v>
-      </c>
-      <c r="K25" s="7">
-        <f>K23+K24*1.13</f>
-        <v>16592.737972000003</v>
-      </c>
-      <c r="L25" s="7">
-        <f>SUM(L23)</f>
-        <v>16150.959500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1">
-      <c r="A26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="9">
-        <f>SUM(G15, G21, G25)</f>
-        <v>34529.620999999999</v>
-      </c>
-      <c r="H26" s="9">
-        <f>SUM(H15,H21,H25)</f>
-        <v>34765</v>
-      </c>
-      <c r="K26" s="9">
-        <f>SUM(K15, K21, K25)</f>
-        <v>23766.738134300002</v>
-      </c>
-      <c r="L26" s="9">
-        <f>SUM(L15,L21, L25)</f>
-        <v>24095.412499999999</v>
-      </c>
-      <c r="M26" s="9">
-        <f>K26+L26</f>
-        <v>47862.1506343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="E30" s="2">
+      <c r="J24" s="7" t="e">
+        <f>J23+#REF!*1.13</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="9">
+        <f>SUM(G15, G21, G24)</f>
+        <v>32215.381000000001</v>
+      </c>
+      <c r="J25" s="9" t="e">
+        <f>SUM(J15, J21, J24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="9" t="e">
+        <f>J25+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="D33" s="2">
+        <v>23465</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="2">
-        <v>23465</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.5</v>
       </c>
-      <c r="G34" s="2">
-        <f>D34*F34</f>
+      <c r="G33" s="2">
+        <f>D33*F33</f>
         <v>11732.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="11" customFormat="1">
-      <c r="A10" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1">
-      <c r="B11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="63">
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63">
-      <c r="B13" t="s">
+      <c r="E14" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="78.75">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
